--- a/config_sim_data/wald/result_all_wald.xlsx
+++ b/config_sim_data/wald/result_all_wald.xlsx
@@ -1,37 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/premjunsawang/Documents/GitHub/boostraponline_project/config_sim_data/wald/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C8C413-9500-B440-9153-30CE1AF84DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="17">
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>samp/ch_size</t>
+  </si>
+  <si>
+    <t>exp_l</t>
+  </si>
+  <si>
+    <t>exp_r</t>
+  </si>
+  <si>
+    <t>exp_range</t>
+  </si>
+  <si>
+    <t>error_l</t>
+  </si>
+  <si>
+    <t>error_r</t>
+  </si>
+  <si>
+    <t>error_range</t>
+  </si>
+  <si>
+    <t>waldm1sd2n10000_re.pkl</t>
+  </si>
+  <si>
+    <t>net_online</t>
+  </si>
+  <si>
+    <t>net_online_mm</t>
+  </si>
+  <si>
+    <t>net_online_whole</t>
+  </si>
+  <si>
+    <t>net_offline</t>
+  </si>
+  <si>
+    <t>waldm1sd05n10000_re.pkl</t>
+  </si>
+  <si>
+    <t>waldm3sd2n10000_re.pkl</t>
+  </si>
+  <si>
+    <t>waldm3sd05n10000_re.pkl</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +109,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,64 +433,1326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I25" sqref="I18:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>filename</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>samp/ch_size</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>exp_l</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>exp_r</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>exp_range</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>error_l</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>error_r</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>error_range</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>0.1267065800734076</v>
+      </c>
+      <c r="F2">
+        <v>6.470493669054596</v>
+      </c>
+      <c r="G2">
+        <v>6.3437870889811876</v>
+      </c>
+      <c r="H2">
+        <v>-1.7696495996960829E-2</v>
+      </c>
+      <c r="I2">
+        <v>6.3600075610704021</v>
+      </c>
+      <c r="J2">
+        <v>6.3777040570673629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0.12738726576691389</v>
+      </c>
+      <c r="F3">
+        <v>6.470493669054596</v>
+      </c>
+      <c r="G3">
+        <v>6.343106403287682</v>
+      </c>
+      <c r="H3">
+        <v>-1.8377181690467152E-2</v>
+      </c>
+      <c r="I3">
+        <v>6.3600075610704021</v>
+      </c>
+      <c r="J3">
+        <v>6.3783847427608693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="E4">
+        <v>0.12732132789271949</v>
+      </c>
+      <c r="F4">
+        <v>6.470493669054596</v>
+      </c>
+      <c r="G4">
+        <v>6.3431723411618766</v>
+      </c>
+      <c r="H4">
+        <v>-1.8311243816272749E-2</v>
+      </c>
+      <c r="I4">
+        <v>6.3600075610704021</v>
+      </c>
+      <c r="J4">
+        <v>6.3783188048866748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>0.14805506138731039</v>
+      </c>
+      <c r="F5">
+        <v>6.470493669054596</v>
+      </c>
+      <c r="G5">
+        <v>6.3224386076672854</v>
+      </c>
+      <c r="H5">
+        <v>-3.9044977310863677E-2</v>
+      </c>
+      <c r="I5">
+        <v>6.3600075610704021</v>
+      </c>
+      <c r="J5">
+        <v>6.399052538381266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>0.14628898051072159</v>
+      </c>
+      <c r="F6">
+        <v>5.9634780361399198</v>
+      </c>
+      <c r="G6">
+        <v>5.8171890556291981</v>
+      </c>
+      <c r="H6">
+        <v>-3.7278896434274823E-2</v>
+      </c>
+      <c r="I6">
+        <v>6.8670231939850783</v>
+      </c>
+      <c r="J6">
+        <v>6.9043020904193533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+      <c r="E7">
+        <v>0.14517733531972171</v>
+      </c>
+      <c r="F7">
+        <v>5.771713066447048</v>
+      </c>
+      <c r="G7">
+        <v>5.6265357311273263</v>
+      </c>
+      <c r="H7">
+        <v>-3.6167251243274939E-2</v>
+      </c>
+      <c r="I7">
+        <v>7.0587881636779501</v>
+      </c>
+      <c r="J7">
+        <v>7.0949554149212251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>3000</v>
+      </c>
+      <c r="E8">
+        <v>0.1271677249086994</v>
+      </c>
+      <c r="F8">
+        <v>6.470493669054596</v>
+      </c>
+      <c r="G8">
+        <v>6.3433259441458967</v>
+      </c>
+      <c r="H8">
+        <v>-1.815764083225269E-2</v>
+      </c>
+      <c r="I8">
+        <v>6.3600075610704021</v>
+      </c>
+      <c r="J8">
+        <v>6.3781652019026547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>3000</v>
+      </c>
+      <c r="E9">
+        <v>0.12971818398048671</v>
+      </c>
+      <c r="F9">
+        <v>5.8962309471568268</v>
+      </c>
+      <c r="G9">
+        <v>5.7665127631763404</v>
+      </c>
+      <c r="H9">
+        <v>-2.0708099904039962E-2</v>
+      </c>
+      <c r="I9">
+        <v>6.9342702829681713</v>
+      </c>
+      <c r="J9">
+        <v>6.9549783828722109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>3.6535785133873837E-2</v>
+      </c>
+      <c r="F10">
+        <v>15.103280628484089</v>
+      </c>
+      <c r="G10">
+        <v>15.06674484335022</v>
+      </c>
+      <c r="H10">
+        <v>-4.2537632601457598E-3</v>
+      </c>
+      <c r="I10">
+        <v>9.1547044761780327E-2</v>
+      </c>
+      <c r="J10">
+        <v>9.5800808021925477E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>3.6111985607632513E-2</v>
+      </c>
+      <c r="F11">
+        <v>15.103280628484089</v>
+      </c>
+      <c r="G11">
+        <v>15.06716864287646</v>
+      </c>
+      <c r="H11">
+        <v>-3.829963733904429E-3</v>
+      </c>
+      <c r="I11">
+        <v>9.1547044761780327E-2</v>
+      </c>
+      <c r="J11">
+        <v>9.5377008495685089E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12">
+        <v>3.5365414494347942E-2</v>
+      </c>
+      <c r="F12">
+        <v>15.103280628484089</v>
+      </c>
+      <c r="G12">
+        <v>15.067915213989741</v>
+      </c>
+      <c r="H12">
+        <v>-3.083392620619851E-3</v>
+      </c>
+      <c r="I12">
+        <v>9.1547044761780327E-2</v>
+      </c>
+      <c r="J12">
+        <v>9.4630437382400956E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>4.7050414195955403E-2</v>
+      </c>
+      <c r="F13">
+        <v>15.103280628484089</v>
+      </c>
+      <c r="G13">
+        <v>15.05623021428814</v>
+      </c>
+      <c r="H13">
+        <v>-1.4768392322227319E-2</v>
+      </c>
+      <c r="I13">
+        <v>9.1547044761780327E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.10631543708400849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>4.4263244184031159E-2</v>
+      </c>
+      <c r="F14">
+        <v>15.103280628484089</v>
+      </c>
+      <c r="G14">
+        <v>15.059017384300059</v>
+      </c>
+      <c r="H14">
+        <v>-1.1981222310303069E-2</v>
+      </c>
+      <c r="I14">
+        <v>9.1547044761780327E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.1035282670720825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>500</v>
+      </c>
+      <c r="E15">
+        <v>4.0490813865785291E-2</v>
+      </c>
+      <c r="F15">
+        <v>15.103280628484089</v>
+      </c>
+      <c r="G15">
+        <v>15.062789814618309</v>
+      </c>
+      <c r="H15">
+        <v>-8.2087919920572072E-3</v>
+      </c>
+      <c r="I15">
+        <v>9.1547044761780327E-2</v>
+      </c>
+      <c r="J15">
+        <v>9.9755836753837812E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>3000</v>
+      </c>
+      <c r="E16">
+        <v>3.6291567965696991E-2</v>
+      </c>
+      <c r="F16">
+        <v>15.103280628484089</v>
+      </c>
+      <c r="G16">
+        <v>15.0669890605184</v>
+      </c>
+      <c r="H16">
+        <v>-4.0095460919689074E-3</v>
+      </c>
+      <c r="I16">
+        <v>9.1547044761780327E-2</v>
+      </c>
+      <c r="J16">
+        <v>9.5556590853750123E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>3000</v>
+      </c>
+      <c r="E17">
+        <v>3.8772182354619503E-2</v>
+      </c>
+      <c r="F17">
+        <v>14.59325600881251</v>
+      </c>
+      <c r="G17">
+        <v>14.55448382645789</v>
+      </c>
+      <c r="H17">
+        <v>-6.4901604808914118E-3</v>
+      </c>
+      <c r="I17">
+        <v>0.60157166443336507</v>
+      </c>
+      <c r="J17">
+        <v>0.60806182491425709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>0.1728945045905155</v>
+      </c>
+      <c r="F18">
+        <v>36.397523189635152</v>
+      </c>
+      <c r="G18">
+        <v>36.224628685044642</v>
+      </c>
+      <c r="H18">
+        <v>-3.6612512970720879E-2</v>
+      </c>
+      <c r="I18">
+        <v>31.845806623236481</v>
+      </c>
+      <c r="J18">
+        <v>31.882419136207201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>0.16903199167253199</v>
+      </c>
+      <c r="F19">
+        <v>36.397523189635152</v>
+      </c>
+      <c r="G19">
+        <v>36.228491197962619</v>
+      </c>
+      <c r="H19">
+        <v>-3.2750000052737427E-2</v>
+      </c>
+      <c r="I19">
+        <v>31.845806623236481</v>
+      </c>
+      <c r="J19">
+        <v>31.878556623289221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>500</v>
+      </c>
+      <c r="E20">
+        <v>0.1728945045905155</v>
+      </c>
+      <c r="F20">
+        <v>36.397523189635152</v>
+      </c>
+      <c r="G20">
+        <v>36.224628685044642</v>
+      </c>
+      <c r="H20">
+        <v>-3.6612512970720879E-2</v>
+      </c>
+      <c r="I20">
+        <v>31.845806623236481</v>
+      </c>
+      <c r="J20">
+        <v>31.882419136207201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>0.1932631435567668</v>
+      </c>
+      <c r="F21">
+        <v>35.693611335751463</v>
+      </c>
+      <c r="G21">
+        <v>35.500348192194693</v>
+      </c>
+      <c r="H21">
+        <v>-5.698115193697223E-2</v>
+      </c>
+      <c r="I21">
+        <v>32.54971847712018</v>
+      </c>
+      <c r="J21">
+        <v>32.606699629057147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>0.18795783047453071</v>
+      </c>
+      <c r="F22">
+        <v>35.763422131062782</v>
+      </c>
+      <c r="G22">
+        <v>35.575464300588237</v>
+      </c>
+      <c r="H22">
+        <v>-5.1675838854736117E-2</v>
+      </c>
+      <c r="I22">
+        <v>32.479907681808861</v>
+      </c>
+      <c r="J22">
+        <v>32.531583520663602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>500</v>
+      </c>
+      <c r="E23">
+        <v>0.17635629770090749</v>
+      </c>
+      <c r="F23">
+        <v>35.757118868839207</v>
+      </c>
+      <c r="G23">
+        <v>35.580762571138308</v>
+      </c>
+      <c r="H23">
+        <v>-4.0074306081112933E-2</v>
+      </c>
+      <c r="I23">
+        <v>32.486210944032422</v>
+      </c>
+      <c r="J23">
+        <v>32.526285250113531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>3000</v>
+      </c>
+      <c r="E24">
+        <v>0.13523869712240469</v>
+      </c>
+      <c r="F24">
+        <v>36.397523189635152</v>
+      </c>
+      <c r="G24">
+        <v>36.262284492512748</v>
+      </c>
+      <c r="H24">
+        <v>1.043294497389935E-3</v>
+      </c>
+      <c r="I24">
+        <v>31.845806623236481</v>
+      </c>
+      <c r="J24">
+        <v>31.844763328739091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>3000</v>
+      </c>
+      <c r="E25">
+        <v>0.15104286062914291</v>
+      </c>
+      <c r="F25">
+        <v>35.666396075101773</v>
+      </c>
+      <c r="G25">
+        <v>35.515353214472633</v>
+      </c>
+      <c r="H25">
+        <v>-1.476086900934828E-2</v>
+      </c>
+      <c r="I25">
+        <v>32.57693373776987</v>
+      </c>
+      <c r="J25">
+        <v>32.591694606779207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>3.3593722078620207E-2</v>
+      </c>
+      <c r="F26">
+        <v>187.34352547900991</v>
+      </c>
+      <c r="G26">
+        <v>187.30993175693129</v>
+      </c>
+      <c r="H26">
+        <v>-1.9203201532671521E-3</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1.920320153260491E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>3.363383152652788E-2</v>
+      </c>
+      <c r="F27">
+        <v>187.34352547900991</v>
+      </c>
+      <c r="G27">
+        <v>187.3098916474834</v>
+      </c>
+      <c r="H27">
+        <v>-1.9604296011748179E-3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1.9604296011550559E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>500</v>
+      </c>
+      <c r="E28">
+        <v>3.143236692957041E-2</v>
+      </c>
+      <c r="F28">
+        <v>187.34352547900991</v>
+      </c>
+      <c r="G28">
+        <v>187.3120931120803</v>
+      </c>
+      <c r="H28">
+        <v>2.4103499578265189E-4</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>-2.4103499578131959E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>4.510787639271184E-2</v>
+      </c>
+      <c r="F29">
+        <v>187.34352547900991</v>
+      </c>
+      <c r="G29">
+        <v>187.29841760261721</v>
+      </c>
+      <c r="H29">
+        <v>-1.343447446735878E-2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1.3434474467345581E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>4.0948788624211307E-2</v>
+      </c>
+      <c r="F30">
+        <v>187.34352547900991</v>
+      </c>
+      <c r="G30">
+        <v>187.30257669038571</v>
+      </c>
+      <c r="H30">
+        <v>-9.2753866988582526E-3</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>9.2753866988459777E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>500</v>
+      </c>
+      <c r="E31">
+        <v>3.6130612115014962E-2</v>
+      </c>
+      <c r="F31">
+        <v>187.34352547900991</v>
+      </c>
+      <c r="G31">
+        <v>187.3073948668949</v>
+      </c>
+      <c r="H31">
+        <v>-4.4572101896618926E-3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>4.4572101896562799E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>3000</v>
+      </c>
+      <c r="E32">
+        <v>2.851205070386564E-2</v>
+      </c>
+      <c r="F32">
+        <v>187.34352547900991</v>
+      </c>
+      <c r="G32">
+        <v>187.31501342830609</v>
+      </c>
+      <c r="H32">
+        <v>3.161351221487418E-3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>-3.161351221507402E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>3000</v>
+      </c>
+      <c r="E33">
+        <v>3.8612715809972928E-2</v>
+      </c>
+      <c r="F33">
+        <v>172.45815905625159</v>
+      </c>
+      <c r="G33">
+        <v>172.41954634044171</v>
+      </c>
+      <c r="H33">
+        <v>-6.9393138846198729E-3</v>
+      </c>
+      <c r="I33">
+        <v>14.88536642275827</v>
+      </c>
+      <c r="J33">
+        <v>14.89230573664287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>3.3593722078620207E-2</v>
+      </c>
+      <c r="F34">
+        <v>187.34352547900991</v>
+      </c>
+      <c r="G34">
+        <v>187.30993175693129</v>
+      </c>
+      <c r="H34">
+        <v>-1.9203201532671521E-3</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1.920320153260491E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>3.363383152652788E-2</v>
+      </c>
+      <c r="F35">
+        <v>187.34352547900991</v>
+      </c>
+      <c r="G35">
+        <v>187.3098916474834</v>
+      </c>
+      <c r="H35">
+        <v>-1.9604296011748179E-3</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1.9604296011550559E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>500</v>
+      </c>
+      <c r="E36">
+        <v>3.143236692957041E-2</v>
+      </c>
+      <c r="F36">
+        <v>187.34352547900991</v>
+      </c>
+      <c r="G36">
+        <v>187.3120931120803</v>
+      </c>
+      <c r="H36">
+        <v>2.4103499578265189E-4</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>-2.4103499578131959E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>4.510787639271184E-2</v>
+      </c>
+      <c r="F37">
+        <v>187.34352547900991</v>
+      </c>
+      <c r="G37">
+        <v>187.29841760261721</v>
+      </c>
+      <c r="H37">
+        <v>-1.343447446735878E-2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1.3434474467345581E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <v>4.0948788624211307E-2</v>
+      </c>
+      <c r="F38">
+        <v>187.34352547900991</v>
+      </c>
+      <c r="G38">
+        <v>187.30257669038571</v>
+      </c>
+      <c r="H38">
+        <v>-9.2753866988582526E-3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>9.2753866988459777E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>500</v>
+      </c>
+      <c r="E39">
+        <v>3.6130612115014962E-2</v>
+      </c>
+      <c r="F39">
+        <v>187.34352547900991</v>
+      </c>
+      <c r="G39">
+        <v>187.3073948668949</v>
+      </c>
+      <c r="H39">
+        <v>-4.4572101896618926E-3</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>4.4572101896562799E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>3000</v>
+      </c>
+      <c r="E40">
+        <v>2.851205070386564E-2</v>
+      </c>
+      <c r="F40">
+        <v>187.34352547900991</v>
+      </c>
+      <c r="G40">
+        <v>187.31501342830609</v>
+      </c>
+      <c r="H40">
+        <v>3.161351221487418E-3</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>-3.161351221507402E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>3000</v>
+      </c>
+      <c r="E41">
+        <v>3.8612715809972928E-2</v>
+      </c>
+      <c r="F41">
+        <v>172.45815905625159</v>
+      </c>
+      <c r="G41">
+        <v>172.41954634044171</v>
+      </c>
+      <c r="H41">
+        <v>-6.9393138846198729E-3</v>
+      </c>
+      <c r="I41">
+        <v>14.88536642275827</v>
+      </c>
+      <c r="J41">
+        <v>14.89230573664287</v>
       </c>
     </row>
   </sheetData>

--- a/config_sim_data/wald/result_all_wald.xlsx
+++ b/config_sim_data/wald/result_all_wald.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/premjunsawang/Documents/GitHub/boostraponline_project/config_sim_data/wald/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C8C413-9500-B440-9153-30CE1AF84DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A42F78-D9A9-6641-BB04-565A2CAAD205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="22">
   <si>
     <t>filename</t>
   </si>
@@ -71,6 +71,21 @@
   </si>
   <si>
     <t>waldm3sd05n10000_re.pkl</t>
+  </si>
+  <si>
+    <t>พื้นที่</t>
+  </si>
+  <si>
+    <t>เวลา</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>วัดจำนวนข้อมู,ด้านปลายทั้งสองข้างในแต่ละรอบ</t>
+  </si>
+  <si>
+    <t>วัด time ที่ใช้ทำ boostrap</t>
   </si>
 </sst>
 </file>
@@ -434,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I25" sqref="I18:I25"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -446,7 +461,7 @@
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -507,7 +522,7 @@
         <v>6.3777040570673629</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -539,7 +554,7 @@
         <v>6.3783847427608693</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -570,8 +585,11 @@
       <c r="J4">
         <v>6.3783188048866748</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -602,8 +620,11 @@
       <c r="J5">
         <v>6.399052538381266</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -634,8 +655,11 @@
       <c r="J6">
         <v>6.9043020904193533</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -667,7 +691,7 @@
         <v>7.0949554149212251</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -698,8 +722,11 @@
       <c r="J8">
         <v>6.3781652019026547</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -730,8 +757,11 @@
       <c r="J9">
         <v>6.9549783828722109</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -763,7 +793,7 @@
         <v>9.5800808021925477E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -795,7 +825,7 @@
         <v>9.5377008495685089E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -827,7 +857,7 @@
         <v>9.4630437382400956E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -859,7 +889,7 @@
         <v>0.10631543708400849</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -891,7 +921,7 @@
         <v>0.1035282670720825</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -923,7 +953,7 @@
         <v>9.9755836753837812E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/config_sim_data/wald/result_all_wald.xlsx
+++ b/config_sim_data/wald/result_all_wald.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/premjunsawang/Documents/GitHub/boostraponline_project/config_sim_data/wald/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A42F78-D9A9-6641-BB04-565A2CAAD205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE2D0B8-C069-EF40-BB30-E37B0A65BD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
   <si>
     <t>filename</t>
   </si>
@@ -49,6 +49,12 @@
     <t>error_range</t>
   </si>
   <si>
+    <t>n_learn_l</t>
+  </si>
+  <si>
+    <t>n_learn_r</t>
+  </si>
+  <si>
     <t>waldm1sd2n10000_re.pkl</t>
   </si>
   <si>
@@ -71,21 +77,6 @@
   </si>
   <si>
     <t>waldm3sd05n10000_re.pkl</t>
-  </si>
-  <si>
-    <t>พื้นที่</t>
-  </si>
-  <si>
-    <t>เวลา</t>
-  </si>
-  <si>
-    <t>acc</t>
-  </si>
-  <si>
-    <t>วัดจำนวนข้อมู,ด้านปลายทั้งสองข้างในแต่ละรอบ</t>
-  </si>
-  <si>
-    <t>วัด time ที่ใช้ทำ boostrap</t>
   </si>
 </sst>
 </file>
@@ -104,7 +95,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -449,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -461,7 +451,7 @@
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,543 +479,630 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>50</v>
       </c>
       <c r="E2">
-        <v>0.1267065800734076</v>
+        <v>0.12763960778971711</v>
       </c>
       <c r="F2">
         <v>6.470493669054596</v>
       </c>
       <c r="G2">
-        <v>6.3437870889811876</v>
+        <v>6.3428540612648776</v>
       </c>
       <c r="H2">
-        <v>-1.7696495996960829E-2</v>
+        <v>-1.8629523713270309E-2</v>
       </c>
       <c r="I2">
         <v>6.3600075610704021</v>
       </c>
       <c r="J2">
-        <v>6.3777040570673629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.3786370847836729</v>
+      </c>
+      <c r="K2">
+        <v>118.30769230769231</v>
+      </c>
+      <c r="L2">
+        <v>1.571428571428571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
       <c r="E3">
-        <v>0.12738726576691389</v>
+        <v>0.12721047687424289</v>
       </c>
       <c r="F3">
         <v>6.470493669054596</v>
       </c>
       <c r="G3">
-        <v>6.343106403287682</v>
+        <v>6.343283192180353</v>
       </c>
       <c r="H3">
-        <v>-1.8377181690467152E-2</v>
+        <v>-1.8200392797796169E-2</v>
       </c>
       <c r="I3">
         <v>6.3600075610704021</v>
       </c>
       <c r="J3">
-        <v>6.3783847427608693</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.3782079538681984</v>
+      </c>
+      <c r="K3">
+        <v>231.3636363636364</v>
+      </c>
+      <c r="L3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>500</v>
       </c>
       <c r="E4">
-        <v>0.12732132789271949</v>
+        <v>0.12743777397854411</v>
       </c>
       <c r="F4">
         <v>6.470493669054596</v>
       </c>
       <c r="G4">
-        <v>6.3431723411618766</v>
+        <v>6.3430558950760521</v>
       </c>
       <c r="H4">
-        <v>-1.8311243816272749E-2</v>
+        <v>-1.8427689902097311E-2</v>
       </c>
       <c r="I4">
         <v>6.3600075610704021</v>
       </c>
       <c r="J4">
-        <v>6.3783188048866748</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.3784352509724993</v>
+      </c>
+      <c r="K4">
+        <v>609</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>50</v>
       </c>
       <c r="E5">
-        <v>0.14805506138731039</v>
+        <v>0.14782506399214401</v>
       </c>
       <c r="F5">
         <v>6.470493669054596</v>
       </c>
       <c r="G5">
-        <v>6.3224386076672854</v>
+        <v>6.3226686050624519</v>
       </c>
       <c r="H5">
-        <v>-3.9044977310863677E-2</v>
+        <v>-3.8814979915697212E-2</v>
       </c>
       <c r="I5">
         <v>6.3600075610704021</v>
       </c>
       <c r="J5">
-        <v>6.399052538381266</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.3988225409860986</v>
+      </c>
+      <c r="K5">
+        <v>165.66666666666671</v>
+      </c>
+      <c r="L5">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="E6">
-        <v>0.14628898051072159</v>
+        <v>0.14580117336439979</v>
       </c>
       <c r="F6">
-        <v>5.9634780361399198</v>
+        <v>5.869116601375242</v>
       </c>
       <c r="G6">
-        <v>5.8171890556291981</v>
+        <v>5.7233154280108423</v>
       </c>
       <c r="H6">
-        <v>-3.7278896434274823E-2</v>
+        <v>-3.6791089287953098E-2</v>
       </c>
       <c r="I6">
-        <v>6.8670231939850783</v>
+        <v>6.9613846287497561</v>
       </c>
       <c r="J6">
-        <v>6.9043020904193533</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.9981757180377091</v>
+      </c>
+      <c r="K6">
+        <v>248.58333333333329</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>500</v>
       </c>
       <c r="E7">
-        <v>0.14517733531972171</v>
+        <v>0.14492560368106991</v>
       </c>
       <c r="F7">
-        <v>5.771713066447048</v>
+        <v>5.8615811805545572</v>
       </c>
       <c r="G7">
-        <v>5.6265357311273263</v>
+        <v>5.716655576873487</v>
       </c>
       <c r="H7">
-        <v>-3.6167251243274939E-2</v>
+        <v>-3.5915519604623143E-2</v>
       </c>
       <c r="I7">
-        <v>7.0587881636779501</v>
+        <v>6.9689200495704409</v>
       </c>
       <c r="J7">
-        <v>7.0949554149212251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.0048355691750643</v>
+      </c>
+      <c r="K7">
+        <v>604.79999999999995</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>3000</v>
       </c>
       <c r="E8">
-        <v>0.1271677249086994</v>
+        <v>0.12700855755357271</v>
       </c>
       <c r="F8">
         <v>6.470493669054596</v>
       </c>
       <c r="G8">
-        <v>6.3433259441458967</v>
+        <v>6.3434851115010229</v>
       </c>
       <c r="H8">
-        <v>-1.815764083225269E-2</v>
+        <v>-1.7998473477125909E-2</v>
       </c>
       <c r="I8">
         <v>6.3600075610704021</v>
       </c>
       <c r="J8">
-        <v>6.3781652019026547</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.3780060345475276</v>
+      </c>
+      <c r="K8">
+        <v>1761</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>3000</v>
       </c>
       <c r="E9">
-        <v>0.12971818398048671</v>
+        <v>0.13015972693527189</v>
       </c>
       <c r="F9">
-        <v>5.8962309471568268</v>
+        <v>5.877744607869448</v>
       </c>
       <c r="G9">
-        <v>5.7665127631763404</v>
+        <v>5.7475848809341761</v>
       </c>
       <c r="H9">
-        <v>-2.0708099904039962E-2</v>
+        <v>-2.114964285882515E-2</v>
       </c>
       <c r="I9">
-        <v>6.9342702829681713</v>
+        <v>6.9527566222555501</v>
       </c>
       <c r="J9">
-        <v>6.9549783828722109</v>
-      </c>
-      <c r="M9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.9739062651143753</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>50</v>
       </c>
       <c r="E10">
-        <v>3.6535785133873837E-2</v>
+        <v>3.6215005542595713E-2</v>
       </c>
       <c r="F10">
         <v>15.103280628484089</v>
       </c>
       <c r="G10">
-        <v>15.06674484335022</v>
+        <v>15.067065622941501</v>
       </c>
       <c r="H10">
-        <v>-4.2537632601457598E-3</v>
+        <v>-3.932983668867629E-3</v>
       </c>
       <c r="I10">
         <v>9.1547044761780327E-2</v>
       </c>
       <c r="J10">
-        <v>9.5800808021925477E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.5480028430648289E-2</v>
+      </c>
+      <c r="K10">
+        <v>152.33333333333329</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>100</v>
       </c>
       <c r="E11">
-        <v>3.6111985607632513E-2</v>
+        <v>3.5823175194692143E-2</v>
       </c>
       <c r="F11">
         <v>15.103280628484089</v>
       </c>
       <c r="G11">
-        <v>15.06716864287646</v>
+        <v>15.0674574532894</v>
       </c>
       <c r="H11">
-        <v>-3.829963733904429E-3</v>
+        <v>-3.5411533209640518E-3</v>
       </c>
       <c r="I11">
         <v>9.1547044761780327E-2</v>
       </c>
       <c r="J11">
-        <v>9.5377008495685089E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.5088198082743602E-2</v>
+      </c>
+      <c r="K11">
+        <v>301.66666666666669</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>500</v>
       </c>
       <c r="E12">
-        <v>3.5365414494347942E-2</v>
+        <v>3.5757417121522923E-2</v>
       </c>
       <c r="F12">
         <v>15.103280628484089</v>
       </c>
       <c r="G12">
-        <v>15.067915213989741</v>
+        <v>15.06752321136257</v>
       </c>
       <c r="H12">
-        <v>-3.083392620619851E-3</v>
+        <v>-3.475395247794832E-3</v>
       </c>
       <c r="I12">
         <v>9.1547044761780327E-2</v>
       </c>
       <c r="J12">
-        <v>9.4630437382400956E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.5022440009575604E-2</v>
+      </c>
+      <c r="K12">
+        <v>645</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>50</v>
       </c>
       <c r="E13">
-        <v>4.7050414195955403E-2</v>
+        <v>5.2683165019883557E-2</v>
       </c>
       <c r="F13">
         <v>15.103280628484089</v>
       </c>
       <c r="G13">
-        <v>15.05623021428814</v>
+        <v>15.050597463464211</v>
       </c>
       <c r="H13">
-        <v>-1.4768392322227319E-2</v>
+        <v>-2.040114314615548E-2</v>
       </c>
       <c r="I13">
         <v>9.1547044761780327E-2</v>
       </c>
       <c r="J13">
-        <v>0.10631543708400849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.1119481879079363</v>
+      </c>
+      <c r="K13">
+        <v>374.41176470588238</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
       <c r="E14">
-        <v>4.4263244184031159E-2</v>
+        <v>4.5941231617160141E-2</v>
       </c>
       <c r="F14">
         <v>15.103280628484089</v>
       </c>
       <c r="G14">
-        <v>15.059017384300059</v>
+        <v>15.057339396866929</v>
       </c>
       <c r="H14">
-        <v>-1.1981222310303069E-2</v>
+        <v>-1.3659209743432059E-2</v>
       </c>
       <c r="I14">
         <v>9.1547044761780327E-2</v>
       </c>
       <c r="J14">
-        <v>0.1035282670720825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.1052062545052124</v>
+      </c>
+      <c r="K14">
+        <v>426</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>500</v>
       </c>
       <c r="E15">
-        <v>4.0490813865785291E-2</v>
+        <v>4.051710372298091E-2</v>
       </c>
       <c r="F15">
         <v>15.103280628484089</v>
       </c>
       <c r="G15">
-        <v>15.062789814618309</v>
+        <v>15.06276352476111</v>
       </c>
       <c r="H15">
-        <v>-8.2087919920572072E-3</v>
+        <v>-8.235081849252826E-3</v>
       </c>
       <c r="I15">
         <v>9.1547044761780327E-2</v>
       </c>
       <c r="J15">
-        <v>9.9755836753837812E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.9782126611033917E-2</v>
+      </c>
+      <c r="K15">
+        <v>644.5</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
         <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
       </c>
       <c r="D16">
         <v>3000</v>
       </c>
       <c r="E16">
-        <v>3.6291567965696991E-2</v>
+        <v>3.5615056998972487E-2</v>
       </c>
       <c r="F16">
         <v>15.103280628484089</v>
       </c>
       <c r="G16">
-        <v>15.0669890605184</v>
+        <v>15.06766557148512</v>
       </c>
       <c r="H16">
-        <v>-4.0095460919689074E-3</v>
+        <v>-3.3330351252444101E-3</v>
       </c>
       <c r="I16">
         <v>9.1547044761780327E-2</v>
       </c>
       <c r="J16">
-        <v>9.5556590853750123E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9.4880079887024849E-2</v>
+      </c>
+      <c r="K16">
+        <v>2600</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>3000</v>
       </c>
       <c r="E17">
-        <v>3.8772182354619503E-2</v>
+        <v>3.8755151783203892E-2</v>
       </c>
       <c r="F17">
-        <v>14.59325600881251</v>
+        <v>14.611438969703331</v>
       </c>
       <c r="G17">
-        <v>14.55448382645789</v>
+        <v>14.572683817920121</v>
       </c>
       <c r="H17">
-        <v>-6.4901604808914118E-3</v>
+        <v>-6.4731299094758013E-3</v>
       </c>
       <c r="I17">
-        <v>0.60157166443336507</v>
+        <v>0.58338870354254446</v>
       </c>
       <c r="J17">
-        <v>0.60806182491425709</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.58986183345202114</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>50</v>
@@ -1048,48 +1125,60 @@
       <c r="J18">
         <v>31.882419136207201</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>129.5</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>100</v>
       </c>
       <c r="E19">
-        <v>0.16903199167253199</v>
+        <v>0.1728945045905155</v>
       </c>
       <c r="F19">
         <v>36.397523189635152</v>
       </c>
       <c r="G19">
-        <v>36.228491197962619</v>
+        <v>36.224628685044642</v>
       </c>
       <c r="H19">
-        <v>-3.2750000052737427E-2</v>
+        <v>-3.6612512970720879E-2</v>
       </c>
       <c r="I19">
         <v>31.845806623236481</v>
       </c>
       <c r="J19">
-        <v>31.878556623289221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31.882419136207201</v>
+      </c>
+      <c r="K19">
+        <v>227.2</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>500</v>
@@ -1112,677 +1201,505 @@
       <c r="J20">
         <v>31.882419136207201</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>793</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>50</v>
       </c>
       <c r="E21">
-        <v>0.1932631435567668</v>
+        <v>0.1923295711733129</v>
       </c>
       <c r="F21">
-        <v>35.693611335751463</v>
+        <v>35.051114397370696</v>
       </c>
       <c r="G21">
-        <v>35.500348192194693</v>
+        <v>34.858784826197393</v>
       </c>
       <c r="H21">
-        <v>-5.698115193697223E-2</v>
+        <v>-5.6047579553518301E-2</v>
       </c>
       <c r="I21">
-        <v>32.54971847712018</v>
+        <v>33.192215415500939</v>
       </c>
       <c r="J21">
-        <v>32.606699629057147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33.248262995054453</v>
+      </c>
+      <c r="K21">
+        <v>313.1875</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>100</v>
       </c>
       <c r="E22">
-        <v>0.18795783047453071</v>
+        <v>0.18553809389727019</v>
       </c>
       <c r="F22">
-        <v>35.763422131062782</v>
+        <v>35.704698904109378</v>
       </c>
       <c r="G22">
-        <v>35.575464300588237</v>
+        <v>35.519160810212107</v>
       </c>
       <c r="H22">
-        <v>-5.1675838854736117E-2</v>
+        <v>-4.9256102277475587E-2</v>
       </c>
       <c r="I22">
-        <v>32.479907681808861</v>
+        <v>32.538630908762258</v>
       </c>
       <c r="J22">
-        <v>32.531583520663602</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32.587887011039733</v>
+      </c>
+      <c r="K22">
+        <v>451.45454545454538</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>500</v>
       </c>
       <c r="E23">
-        <v>0.17635629770090749</v>
+        <v>0.17683195935532181</v>
       </c>
       <c r="F23">
-        <v>35.757118868839207</v>
+        <v>35.749211583080474</v>
       </c>
       <c r="G23">
-        <v>35.580762571138308</v>
+        <v>35.572379623725148</v>
       </c>
       <c r="H23">
-        <v>-4.0074306081112933E-2</v>
+        <v>-4.0549967735527243E-2</v>
       </c>
       <c r="I23">
-        <v>32.486210944032422</v>
+        <v>32.494118229791169</v>
       </c>
       <c r="J23">
-        <v>32.526285250113531</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32.534668197526692</v>
+      </c>
+      <c r="K23">
+        <v>791.66666666666663</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>3000</v>
       </c>
       <c r="E24">
-        <v>0.13523869712240469</v>
+        <v>0.13434983123645461</v>
       </c>
       <c r="F24">
         <v>36.397523189635152</v>
       </c>
       <c r="G24">
-        <v>36.262284492512748</v>
+        <v>36.263173358398703</v>
       </c>
       <c r="H24">
-        <v>1.043294497389935E-3</v>
+        <v>1.932160383339987E-3</v>
       </c>
       <c r="I24">
         <v>31.845806623236481</v>
       </c>
       <c r="J24">
-        <v>31.844763328739091</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31.84387446285314</v>
+      </c>
+      <c r="K24">
+        <v>2427</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
         <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
       </c>
       <c r="D25">
         <v>3000</v>
       </c>
       <c r="E25">
-        <v>0.15104286062914291</v>
+        <v>0.1509503815367621</v>
       </c>
       <c r="F25">
-        <v>35.666396075101773</v>
+        <v>35.704153028481478</v>
       </c>
       <c r="G25">
-        <v>35.515353214472633</v>
+        <v>35.553202646944719</v>
       </c>
       <c r="H25">
-        <v>-1.476086900934828E-2</v>
+        <v>-1.4668389916967509E-2</v>
       </c>
       <c r="I25">
-        <v>32.57693373776987</v>
+        <v>32.539176784390158</v>
       </c>
       <c r="J25">
-        <v>32.591694606779207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32.553845174307121</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>50</v>
       </c>
       <c r="E26">
-        <v>3.3593722078620207E-2</v>
+        <v>3.1611595245052637E-2</v>
       </c>
       <c r="F26">
         <v>187.34352547900991</v>
       </c>
       <c r="G26">
-        <v>187.30993175693129</v>
+        <v>187.3119138837649</v>
       </c>
       <c r="H26">
-        <v>-1.9203201532671521E-3</v>
+        <v>6.1806680300424688E-5</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1.920320153260491E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-6.1806680321296881E-5</v>
+      </c>
+      <c r="K26">
+        <v>308</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D27">
         <v>100</v>
       </c>
       <c r="E27">
-        <v>3.363383152652788E-2</v>
+        <v>2.7403163360911979E-2</v>
       </c>
       <c r="F27">
         <v>187.34352547900991</v>
       </c>
       <c r="G27">
-        <v>187.3098916474834</v>
+        <v>187.31612231564901</v>
       </c>
       <c r="H27">
-        <v>-1.9604296011748179E-3</v>
+        <v>4.2702385644410867E-3</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.9604296011550559E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-4.2702385644588503E-3</v>
+      </c>
+      <c r="K27">
+        <v>497.1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>500</v>
       </c>
       <c r="E28">
-        <v>3.143236692957041E-2</v>
+        <v>3.081366495382554E-2</v>
       </c>
       <c r="F28">
         <v>187.34352547900991</v>
       </c>
       <c r="G28">
-        <v>187.3120931120803</v>
+        <v>187.31271181405609</v>
       </c>
       <c r="H28">
-        <v>2.4103499578265189E-4</v>
+        <v>8.5973697152752493E-4</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>-2.4103499578131959E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-8.5973697153463036E-4</v>
+      </c>
+      <c r="K28">
+        <v>1406.2</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>50</v>
       </c>
       <c r="E29">
-        <v>4.510787639271184E-2</v>
+        <v>5.1416304021085033E-2</v>
       </c>
       <c r="F29">
         <v>187.34352547900991</v>
       </c>
       <c r="G29">
-        <v>187.29841760261721</v>
+        <v>187.29210917498881</v>
       </c>
       <c r="H29">
-        <v>-1.343447446735878E-2</v>
+        <v>-1.9742902095731971E-2</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1.3434474467345581E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.9742902095714499E-2</v>
+      </c>
+      <c r="K29">
+        <v>387</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>100</v>
       </c>
       <c r="E30">
-        <v>4.0948788624211307E-2</v>
+        <v>4.0048512612667529E-2</v>
       </c>
       <c r="F30">
         <v>187.34352547900991</v>
       </c>
       <c r="G30">
-        <v>187.30257669038571</v>
+        <v>187.30347696639731</v>
       </c>
       <c r="H30">
-        <v>-9.2753866988582526E-3</v>
+        <v>-8.3751106873144673E-3</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>9.2753866988459777E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8.375110687296683E-3</v>
+      </c>
+      <c r="K30">
+        <v>493.7</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D31">
         <v>500</v>
       </c>
       <c r="E31">
-        <v>3.6130612115014962E-2</v>
+        <v>3.9535246694898447E-2</v>
       </c>
       <c r="F31">
         <v>187.34352547900991</v>
       </c>
       <c r="G31">
-        <v>187.3073948668949</v>
+        <v>187.30399023231499</v>
       </c>
       <c r="H31">
-        <v>-4.4572101896618926E-3</v>
+        <v>-7.8618447695453925E-3</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>4.4572101896562799E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7.8618447695362192E-3</v>
+      </c>
+      <c r="K31">
+        <v>1401.6</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>3000</v>
       </c>
       <c r="E32">
-        <v>2.851205070386564E-2</v>
+        <v>3.5813853903405857E-2</v>
       </c>
       <c r="F32">
         <v>187.34352547900991</v>
       </c>
       <c r="G32">
-        <v>187.31501342830609</v>
+        <v>187.30771162510649</v>
       </c>
       <c r="H32">
-        <v>3.161351221487418E-3</v>
+        <v>-4.1404519780527949E-3</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>-3.161351221507402E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.1404519780599003E-3</v>
+      </c>
+      <c r="K32">
+        <v>2917</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <v>3000</v>
       </c>
       <c r="E33">
-        <v>3.8612715809972928E-2</v>
+        <v>3.8789990333813279E-2</v>
       </c>
       <c r="F33">
-        <v>172.45815905625159</v>
+        <v>172.7628451892912</v>
       </c>
       <c r="G33">
-        <v>172.41954634044171</v>
+        <v>172.72405519895739</v>
       </c>
       <c r="H33">
-        <v>-6.9393138846198729E-3</v>
+        <v>-7.1165884084602171E-3</v>
       </c>
       <c r="I33">
-        <v>14.88536642275827</v>
+        <v>14.580680289718741</v>
       </c>
       <c r="J33">
-        <v>14.89230573664287</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>50</v>
-      </c>
-      <c r="E34">
-        <v>3.3593722078620207E-2</v>
-      </c>
-      <c r="F34">
-        <v>187.34352547900991</v>
-      </c>
-      <c r="G34">
-        <v>187.30993175693129</v>
-      </c>
-      <c r="H34">
-        <v>-1.9203201532671521E-3</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>1.920320153260491E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35">
-        <v>100</v>
-      </c>
-      <c r="E35">
-        <v>3.363383152652788E-2</v>
-      </c>
-      <c r="F35">
-        <v>187.34352547900991</v>
-      </c>
-      <c r="G35">
-        <v>187.3098916474834</v>
-      </c>
-      <c r="H35">
-        <v>-1.9604296011748179E-3</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>1.9604296011550559E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <v>500</v>
-      </c>
-      <c r="E36">
-        <v>3.143236692957041E-2</v>
-      </c>
-      <c r="F36">
-        <v>187.34352547900991</v>
-      </c>
-      <c r="G36">
-        <v>187.3120931120803</v>
-      </c>
-      <c r="H36">
-        <v>2.4103499578265189E-4</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>-2.4103499578131959E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>50</v>
-      </c>
-      <c r="E37">
-        <v>4.510787639271184E-2</v>
-      </c>
-      <c r="F37">
-        <v>187.34352547900991</v>
-      </c>
-      <c r="G37">
-        <v>187.29841760261721</v>
-      </c>
-      <c r="H37">
-        <v>-1.343447446735878E-2</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>1.3434474467345581E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38">
-        <v>100</v>
-      </c>
-      <c r="E38">
-        <v>4.0948788624211307E-2</v>
-      </c>
-      <c r="F38">
-        <v>187.34352547900991</v>
-      </c>
-      <c r="G38">
-        <v>187.30257669038571</v>
-      </c>
-      <c r="H38">
-        <v>-9.2753866988582526E-3</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>9.2753866988459777E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39">
-        <v>500</v>
-      </c>
-      <c r="E39">
-        <v>3.6130612115014962E-2</v>
-      </c>
-      <c r="F39">
-        <v>187.34352547900991</v>
-      </c>
-      <c r="G39">
-        <v>187.3073948668949</v>
-      </c>
-      <c r="H39">
-        <v>-4.4572101896618926E-3</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>4.4572101896562799E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40">
-        <v>3000</v>
-      </c>
-      <c r="E40">
-        <v>2.851205070386564E-2</v>
-      </c>
-      <c r="F40">
-        <v>187.34352547900991</v>
-      </c>
-      <c r="G40">
-        <v>187.31501342830609</v>
-      </c>
-      <c r="H40">
-        <v>3.161351221487418E-3</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>-3.161351221507402E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41">
-        <v>3000</v>
-      </c>
-      <c r="E41">
-        <v>3.8612715809972928E-2</v>
-      </c>
-      <c r="F41">
-        <v>172.45815905625159</v>
-      </c>
-      <c r="G41">
-        <v>172.41954634044171</v>
-      </c>
-      <c r="H41">
-        <v>-6.9393138846198729E-3</v>
-      </c>
-      <c r="I41">
-        <v>14.88536642275827</v>
-      </c>
-      <c r="J41">
-        <v>14.89230573664287</v>
+        <v>14.58779687812719</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config_sim_data/wald/result_all_wald.xlsx
+++ b/config_sim_data/wald/result_all_wald.xlsx
@@ -8,19 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/premjunsawang/Documents/GitHub/boostraponline_project/config_sim_data/wald/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE2D0B8-C069-EF40-BB30-E37B0A65BD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B40B2F5-18F7-4A42-9F0C-9C0CB281B603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="waldm1sd05n10000" sheetId="2" r:id="rId1"/>
+    <sheet name="all" sheetId="1" r:id="rId2"/>
+    <sheet name="waldm1sd2n10000" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">all!$A$1:$L$33</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="24">
   <si>
     <t>filename</t>
   </si>
@@ -78,12 +83,27 @@
   <si>
     <t>waldm3sd05n10000_re.pkl</t>
   </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Online BT</t>
+  </si>
+  <si>
+    <t>Min-max online BT</t>
+  </si>
+  <si>
+    <t>Online BT 1 ch</t>
+  </si>
+  <si>
+    <t>Traditional BT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +115,15 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -128,15 +157,270 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,20 +722,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851C1C84-B9EA-DB4D-9739-6F33894D7850}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="11">
+        <v>50</v>
+      </c>
+      <c r="C2" s="12">
+        <v>-3.932983668867629E-3</v>
+      </c>
+      <c r="D2" s="12">
+        <v>9.1547044761780327E-2</v>
+      </c>
+      <c r="E2" s="12">
+        <v>9.5480028430648289E-2</v>
+      </c>
+      <c r="F2" s="12">
+        <v>152.33333333333329</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="14">
+        <v>100</v>
+      </c>
+      <c r="C3" s="15">
+        <v>-3.5411533209640518E-3</v>
+      </c>
+      <c r="D3" s="15">
+        <v>9.1547044761780327E-2</v>
+      </c>
+      <c r="E3" s="15">
+        <v>9.5088198082743602E-2</v>
+      </c>
+      <c r="F3" s="15">
+        <v>301.66666666666669</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="18">
+        <v>500</v>
+      </c>
+      <c r="C4" s="19">
+        <v>-3.475395247794832E-3</v>
+      </c>
+      <c r="D4" s="19">
+        <v>9.1547044761780327E-2</v>
+      </c>
+      <c r="E4" s="19">
+        <v>9.5022440009575604E-2</v>
+      </c>
+      <c r="F4" s="19">
+        <v>645</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="11">
+        <v>50</v>
+      </c>
+      <c r="C5" s="12">
+        <v>-2.040114314615548E-2</v>
+      </c>
+      <c r="D5" s="12">
+        <v>9.1547044761780327E-2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.1119481879079363</v>
+      </c>
+      <c r="F5" s="12">
+        <v>374.41176470588238</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="14">
+        <v>100</v>
+      </c>
+      <c r="C6" s="15">
+        <v>-1.3659209743432059E-2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>9.1547044761780327E-2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.1052062545052124</v>
+      </c>
+      <c r="F6" s="15">
+        <v>426</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="18">
+        <v>500</v>
+      </c>
+      <c r="C7" s="19">
+        <v>-8.235081849252826E-3</v>
+      </c>
+      <c r="D7" s="19">
+        <v>9.1547044761780327E-2</v>
+      </c>
+      <c r="E7" s="19">
+        <v>9.9782126611033917E-2</v>
+      </c>
+      <c r="F7" s="19">
+        <v>644.5</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="12">
+        <v>-3.3330351252444101E-3</v>
+      </c>
+      <c r="D8" s="12">
+        <v>9.1547044761780327E-2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>9.4880079887024849E-2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2600</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="18">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="19">
+        <v>-6.4731299094758013E-3</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.58338870354254446</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.58986183345202114</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="8.83203125" style="7"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,33 +975,33 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -499,33 +1013,33 @@
       <c r="D2">
         <v>50</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0.12763960778971711</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>6.470493669054596</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>6.3428540612648776</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>-1.8629523713270309E-2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>6.3600075610704021</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>6.3786370847836729</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>118.30769230769231</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>1.571428571428571</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -537,33 +1051,33 @@
       <c r="D3">
         <v>100</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.12721047687424289</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>6.470493669054596</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>6.343283192180353</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>-1.8200392797796169E-2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>6.3600075610704021</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>6.3782079538681984</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>231.3636363636364</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>1.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -575,33 +1089,33 @@
       <c r="D4">
         <v>500</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0.12743777397854411</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>6.470493669054596</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>6.3430558950760521</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>-1.8427689902097311E-2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>6.3600075610704021</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>6.3784352509724993</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>609</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -613,33 +1127,33 @@
       <c r="D5">
         <v>50</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.14782506399214401</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>6.470493669054596</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>6.3226686050624519</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>-3.8814979915697212E-2</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>6.3600075610704021</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>6.3988225409860986</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>165.66666666666671</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -651,33 +1165,33 @@
       <c r="D6">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0.14580117336439979</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>5.869116601375242</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>5.7233154280108423</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>-3.6791089287953098E-2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>6.9613846287497561</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>6.9981757180377091</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>248.58333333333329</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -689,33 +1203,33 @@
       <c r="D7">
         <v>500</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.14492560368106991</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>5.8615811805545572</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>5.716655576873487</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>-3.5915519604623143E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>6.9689200495704409</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>7.0048355691750643</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>604.79999999999995</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -727,33 +1241,33 @@
       <c r="D8">
         <v>3000</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0.12700855755357271</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>6.470493669054596</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>6.3434851115010229</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>-1.7998473477125909E-2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>6.3600075610704021</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>6.3780060345475276</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>1761</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -765,33 +1279,33 @@
       <c r="D9">
         <v>3000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.13015972693527189</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>5.877744607869448</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>5.7475848809341761</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>-2.114964285882515E-2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>6.9527566222555501</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>6.9739062651143753</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -803,33 +1317,33 @@
       <c r="D10">
         <v>50</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>3.6215005542595713E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>15.103280628484089</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>15.067065622941501</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>-3.932983668867629E-3</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>9.1547044761780327E-2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>9.5480028430648289E-2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>152.33333333333329</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -841,33 +1355,33 @@
       <c r="D11">
         <v>100</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>3.5823175194692143E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>15.103280628484089</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>15.0674574532894</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>-3.5411533209640518E-3</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>9.1547044761780327E-2</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>9.5088198082743602E-2</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>301.66666666666669</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -879,33 +1393,34 @@
       <c r="D12">
         <v>500</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>3.5757417121522923E-2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>15.103280628484089</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>15.06752321136257</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>-3.475395247794832E-3</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>9.1547044761780327E-2</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>9.5022440009575604E-2</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>645</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -917,33 +1432,33 @@
       <c r="D13">
         <v>50</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>5.2683165019883557E-2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>15.103280628484089</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>15.050597463464211</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>-2.040114314615548E-2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>9.1547044761780327E-2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>0.1119481879079363</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>374.41176470588238</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -955,33 +1470,33 @@
       <c r="D14">
         <v>100</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>4.5941231617160141E-2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>15.103280628484089</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>15.057339396866929</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>-1.3659209743432059E-2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>9.1547044761780327E-2</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>0.1052062545052124</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>426</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -993,33 +1508,33 @@
       <c r="D15">
         <v>500</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>4.051710372298091E-2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>15.103280628484089</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>15.06276352476111</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>-8.235081849252826E-3</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>9.1547044761780327E-2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>9.9782126611033917E-2</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>644.5</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1031,33 +1546,33 @@
       <c r="D16">
         <v>3000</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>3.5615056998972487E-2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>15.103280628484089</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>15.06766557148512</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>-3.3330351252444101E-3</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>9.1547044761780327E-2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>9.4880079887024849E-2</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>2600</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1069,33 +1584,33 @@
       <c r="D17">
         <v>3000</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>3.8755151783203892E-2</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>14.611438969703331</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>14.572683817920121</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>-6.4731299094758013E-3</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>0.58338870354254446</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>0.58986183345202114</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -1107,33 +1622,33 @@
       <c r="D18">
         <v>50</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>0.1728945045905155</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>36.397523189635152</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>36.224628685044642</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>-3.6612512970720879E-2</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>31.845806623236481</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>31.882419136207201</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>129.5</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -1145,33 +1660,33 @@
       <c r="D19">
         <v>100</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>0.1728945045905155</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>36.397523189635152</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>36.224628685044642</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>-3.6612512970720879E-2</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>31.845806623236481</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>31.882419136207201</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>227.2</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -1183,33 +1698,33 @@
       <c r="D20">
         <v>500</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>0.1728945045905155</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>36.397523189635152</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>36.224628685044642</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>-3.6612512970720879E-2</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>31.845806623236481</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>31.882419136207201</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>793</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -1221,33 +1736,33 @@
       <c r="D21">
         <v>50</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>0.1923295711733129</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>35.051114397370696</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>34.858784826197393</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>-5.6047579553518301E-2</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>33.192215415500939</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>33.248262995054453</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>313.1875</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -1259,33 +1774,33 @@
       <c r="D22">
         <v>100</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>0.18553809389727019</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>35.704698904109378</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>35.519160810212107</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>-4.9256102277475587E-2</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>32.538630908762258</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>32.587887011039733</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>451.45454545454538</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -1297,33 +1812,33 @@
       <c r="D23">
         <v>500</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>0.17683195935532181</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>35.749211583080474</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>35.572379623725148</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>-4.0549967735527243E-2</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>32.494118229791169</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>32.534668197526692</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <v>791.66666666666663</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -1335,33 +1850,33 @@
       <c r="D24">
         <v>3000</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>0.13434983123645461</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>36.397523189635152</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>36.263173358398703</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>1.932160383339987E-3</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>31.845806623236481</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>31.84387446285314</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>2427</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -1373,33 +1888,33 @@
       <c r="D25">
         <v>3000</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>0.1509503815367621</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>35.704153028481478</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>35.553202646944719</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>-1.4668389916967509E-2</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>32.539176784390158</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>32.553845174307121</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -1411,33 +1926,33 @@
       <c r="D26">
         <v>50</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>3.1611595245052637E-2</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>187.34352547900991</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>187.3119138837649</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>6.1806680300424688E-5</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-6.1806680321296881E-5</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>308</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -1449,33 +1964,33 @@
       <c r="D27">
         <v>100</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>2.7403163360911979E-2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>187.34352547900991</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>187.31612231564901</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>4.2702385644410867E-3</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-4.2702385644588503E-3</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>497.1</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -1487,33 +2002,33 @@
       <c r="D28">
         <v>500</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>3.081366495382554E-2</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>187.34352547900991</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>187.31271181405609</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>8.5973697152752493E-4</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
         <v>-8.5973697153463036E-4</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>1406.2</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -1525,33 +2040,33 @@
       <c r="D29">
         <v>50</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>5.1416304021085033E-2</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>187.34352547900991</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>187.29210917498881</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>-1.9742902095731971E-2</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>1.9742902095714499E-2</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>387</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -1563,33 +2078,33 @@
       <c r="D30">
         <v>100</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>4.0048512612667529E-2</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>187.34352547900991</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>187.30347696639731</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>-8.3751106873144673E-3</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
         <v>8.375110687296683E-3</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <v>493.7</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -1601,33 +2116,33 @@
       <c r="D31">
         <v>500</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>3.9535246694898447E-2</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>187.34352547900991</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>187.30399023231499</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>-7.8618447695453925E-3</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
         <v>7.8618447695362192E-3</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <v>1401.6</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -1639,33 +2154,33 @@
       <c r="D32">
         <v>3000</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>3.5813853903405857E-2</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>187.34352547900991</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>187.30771162510649</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>-4.1404519780527949E-3</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>4.1404519780599003E-3</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>2917</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -1677,32 +2192,258 @@
       <c r="D33">
         <v>3000</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>3.8789990333813279E-2</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>172.7628451892912</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>172.72405519895739</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>-7.1165884084602171E-3</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>14.580680289718741</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>14.58779687812719</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L33" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23E3BC1-F79D-9943-899C-D9C36A59B104}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="21">
+        <v>50</v>
+      </c>
+      <c r="C2" s="22">
+        <v>-1.8629523713270309E-2</v>
+      </c>
+      <c r="D2" s="22">
+        <v>6.3600075610704021</v>
+      </c>
+      <c r="E2" s="22">
+        <v>6.3786370847836729</v>
+      </c>
+      <c r="F2" s="22">
+        <v>118.30769230769231</v>
+      </c>
+      <c r="G2" s="28">
+        <v>1.571428571428571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="21">
+        <v>100</v>
+      </c>
+      <c r="C3" s="22">
+        <v>-1.8200392797796169E-2</v>
+      </c>
+      <c r="D3" s="22">
+        <v>6.3600075610704021</v>
+      </c>
+      <c r="E3" s="22">
+        <v>6.3782079538681984</v>
+      </c>
+      <c r="F3" s="22">
+        <v>231.3636363636364</v>
+      </c>
+      <c r="G3" s="28">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="30">
+        <v>500</v>
+      </c>
+      <c r="C4" s="31">
+        <v>-1.8427689902097311E-2</v>
+      </c>
+      <c r="D4" s="31">
+        <v>6.3600075610704021</v>
+      </c>
+      <c r="E4" s="31">
+        <v>6.3784352509724993</v>
+      </c>
+      <c r="F4" s="31">
+        <v>609</v>
+      </c>
+      <c r="G4" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="34">
+        <v>50</v>
+      </c>
+      <c r="C5" s="35">
+        <v>-3.8814979915697212E-2</v>
+      </c>
+      <c r="D5" s="35">
+        <v>6.3600075610704021</v>
+      </c>
+      <c r="E5" s="35">
+        <v>6.3988225409860986</v>
+      </c>
+      <c r="F5" s="35">
+        <v>165.66666666666671</v>
+      </c>
+      <c r="G5" s="36">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="21">
+        <v>100</v>
+      </c>
+      <c r="C6" s="22">
+        <v>-3.6791089287953098E-2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>6.9613846287497561</v>
+      </c>
+      <c r="E6" s="22">
+        <v>6.9981757180377091</v>
+      </c>
+      <c r="F6" s="22">
+        <v>248.58333333333329</v>
+      </c>
+      <c r="G6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="30">
+        <v>500</v>
+      </c>
+      <c r="C7" s="31">
+        <v>-3.5915519604623143E-2</v>
+      </c>
+      <c r="D7" s="31">
+        <v>6.9689200495704409</v>
+      </c>
+      <c r="E7" s="31">
+        <v>7.0048355691750643</v>
+      </c>
+      <c r="F7" s="31">
+        <v>604.79999999999995</v>
+      </c>
+      <c r="G7" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="34">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="35">
+        <v>-1.7998473477125909E-2</v>
+      </c>
+      <c r="D8" s="35">
+        <v>6.3600075610704021</v>
+      </c>
+      <c r="E8" s="35">
+        <v>6.3780060345475276</v>
+      </c>
+      <c r="F8" s="35">
+        <v>1761</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="30">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="31">
+        <v>-2.114964285882515E-2</v>
+      </c>
+      <c r="D9" s="31">
+        <v>6.9527566222555501</v>
+      </c>
+      <c r="E9" s="31">
+        <v>6.9739062651143753</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>